--- a/biology/Zoologie/Ithycyphus_perineti/Ithycyphus_perineti.xlsx
+++ b/biology/Zoologie/Ithycyphus_perineti/Ithycyphus_perineti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ithycyphus perineti est une espèce de serpents de la famille des Lamprophiidae[1]. Fandrefiala est le nom vernaculaire.  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ithycyphus perineti est une espèce de serpents de la famille des Lamprophiidae. Fandrefiala est le nom vernaculaire.  
 Voici quelques synonymes: 
-Ithycyphus perineti DOMERGUE 1986[2]
-Ithycyphus perineti — GLAW &amp; VENCES 1994[3]
-Ithycyphus perineti — WALLACH et al. 2014[4]
+Ithycyphus perineti DOMERGUE 1986
+Ithycyphus perineti — GLAW &amp; VENCES 1994
+Ithycyphus perineti — WALLACH et al. 2014
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar[1]. On le retrouve à Analamazotra (Périnet) sur une élévation de 900 m[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. On le retrouve à Analamazotra (Périnet) sur une élévation de 900 m. 
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ithycyphus perineti est une espèce de serpents de la famille des serpents nocturnes africains, le tableau suivant montre les attributs de cette espèce[6],[5]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ithycyphus perineti est une espèce de serpents de la famille des serpents nocturnes africains, le tableau suivant montre les attributs de cette espèce,:
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Domergue, 1986 : Notes sur les serpentes de la region malgache 6. Le genre Ithycyphus Günther, 1873; description de deux especes nouvelles. Bulletin du Muséum d'histoire naturelle de Paris, vol. 8, n. 2, p. 409-434.</t>
         </is>
